--- a/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8147</v>
+        <v>7807</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01566524895986001</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05448164042390502</v>
+        <v>0.05220983539462134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8275</v>
+        <v>7253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00885555389822513</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0312841012975612</v>
+        <v>0.02742012477311053</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>2604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7949</v>
+        <v>6217</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02264212250288964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007419508968766275</v>
+        <v>0.007320981014884177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06912625158542769</v>
+        <v>0.05406532639601784</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>2604</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7833</v>
+        <v>6964</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009842547040774089</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00325478847332774</v>
+        <v>0.003237405630511258</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02961289528155662</v>
+        <v>0.02632760264422776</v>
       </c>
     </row>
     <row r="6">
@@ -870,19 +870,19 @@
         <v>112385</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107040</v>
+        <v>108772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114136</v>
+        <v>114147</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9773578774971103</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9308737484145723</v>
+        <v>0.9459346736039821</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9925804910312338</v>
+        <v>0.9926790189851158</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>149</v>
@@ -891,7 +891,7 @@
         <v>147192</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>141388</v>
+        <v>141728</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>149535</v>
@@ -900,7 +900,7 @@
         <v>0.98433475104014</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.945518359576095</v>
+        <v>0.9477901646053727</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -912,19 +912,19 @@
         <v>259578</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>252777</v>
+        <v>253665</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>262534</v>
+        <v>262769</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9813018990610007</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9555918748932707</v>
+        <v>0.9589482795729206</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9924752009447745</v>
+        <v>0.9933639377872534</v>
       </c>
     </row>
     <row r="7">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7255</v>
+        <v>7071</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006699331925962025</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03971264028580676</v>
+        <v>0.03870954494294587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6943</v>
+        <v>6861</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003724737869043566</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0211300492026415</v>
+        <v>0.02088225439023875</v>
       </c>
     </row>
     <row r="9">
@@ -1079,19 +1079,19 @@
         <v>2795</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7164</v>
+        <v>7887</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01915615503441689</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005995362390931505</v>
+        <v>0.005949494595040862</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04910883285225188</v>
+        <v>0.05406094405539431</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1100,19 +1100,19 @@
         <v>7581</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2827</v>
+        <v>2751</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16249</v>
+        <v>16962</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04150056858453335</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01547459564557853</v>
+        <v>0.01505785080646451</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08894699926624625</v>
+        <v>0.09285096055622961</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1121,19 +1121,19 @@
         <v>10376</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5132</v>
+        <v>5009</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18778</v>
+        <v>18125</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03157934651551932</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0156180549526375</v>
+        <v>0.01524475230116275</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05715034304037691</v>
+        <v>0.05516416357861506</v>
       </c>
     </row>
     <row r="10">
@@ -1150,19 +1150,19 @@
         <v>143094</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138725</v>
+        <v>138002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145014</v>
+        <v>145021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9808438449655831</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9508911671477476</v>
+        <v>0.9459390559446048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9940046376090685</v>
+        <v>0.9940505054049591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>162</v>
@@ -1171,19 +1171,19 @@
         <v>173875</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164633</v>
+        <v>164729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>178703</v>
+        <v>179110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9518000994895046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9012092326236584</v>
+        <v>0.9017371985224487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9782277557892631</v>
+        <v>0.98045884063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -1192,19 +1192,19 @@
         <v>316968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>308538</v>
+        <v>307570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>322382</v>
+        <v>322529</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9646959156154371</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9390382113222348</v>
+        <v>0.9360913000103522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9811724780187943</v>
+        <v>0.9816192914455426</v>
       </c>
     </row>
     <row r="11">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5553</v>
+        <v>4541</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008583080546125959</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05320186127787843</v>
+        <v>0.04350573130096815</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1364,19 +1364,19 @@
         <v>3220</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8683</v>
+        <v>9090</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02370478065489482</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007520643476697836</v>
+        <v>0.007569992901381889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06391969747691184</v>
+        <v>0.06691500765290695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1385,19 +1385,19 @@
         <v>4116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10109</v>
+        <v>9280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01713471188258261</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004435401055109218</v>
+        <v>0.004370022827121158</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04208383847397854</v>
+        <v>0.03863277942840931</v>
       </c>
     </row>
     <row r="14">
@@ -1414,7 +1414,7 @@
         <v>103475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98818</v>
+        <v>99830</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>104371</v>
@@ -1423,7 +1423,7 @@
         <v>0.991416919453874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9467981387221216</v>
+        <v>0.9564942686990318</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1435,19 +1435,19 @@
         <v>132630</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127167</v>
+        <v>126760</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134828</v>
+        <v>134822</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9762952193451052</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9360803025230882</v>
+        <v>0.933084992347093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9924793565233021</v>
+        <v>0.9924300070986182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>238</v>
@@ -1456,19 +1456,19 @@
         <v>236105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>230112</v>
+        <v>230941</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>239156</v>
+        <v>239171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9828652881174174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9579161615260214</v>
+        <v>0.9613672205715906</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9955645989448908</v>
+        <v>0.9956299771728788</v>
       </c>
     </row>
     <row r="15">
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4587</v>
+        <v>5231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006110045474705776</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03342755153683204</v>
+        <v>0.0381205609407777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1581,19 +1581,19 @@
         <v>3188</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8692</v>
+        <v>8840</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01526851641701609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0</v>
+        <v>0.004293278962267415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04163355940150167</v>
+        <v>0.04234285154647122</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1602,19 +1602,19 @@
         <v>4026</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1132</v>
+        <v>891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9713</v>
+        <v>9167</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01163637648030618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003272162075331084</v>
+        <v>0.002575056973883203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0280739556381801</v>
+        <v>0.02649342510720627</v>
       </c>
     </row>
     <row r="17">
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4057</v>
+        <v>3793</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005899457247116752</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02956939701477215</v>
+        <v>0.02764172401469496</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1652,19 +1652,19 @@
         <v>6883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2538</v>
+        <v>2875</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13902</v>
+        <v>14086</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03296813258829778</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01215505972695911</v>
+        <v>0.01376939838723468</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06658588307685159</v>
+        <v>0.06746852460697267</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1673,19 +1673,19 @@
         <v>7693</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3312</v>
+        <v>3369</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14704</v>
+        <v>14814</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02223301999583082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009573244897460498</v>
+        <v>0.009737489213156409</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04249685680312251</v>
+        <v>0.04281572244144792</v>
       </c>
     </row>
     <row r="18">
@@ -1702,7 +1702,7 @@
         <v>135569</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131506</v>
+        <v>132197</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>137217</v>
@@ -1711,7 +1711,7 @@
         <v>0.9879904972781774</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9583813921378975</v>
+        <v>0.9634188831921338</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1723,19 +1723,19 @@
         <v>198706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>190392</v>
+        <v>190253</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203960</v>
+        <v>203424</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9517633509946861</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9119402191997307</v>
+        <v>0.9112730965118325</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9769256052513424</v>
+        <v>0.9743598741884875</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>345</v>
@@ -1744,19 +1744,19 @@
         <v>334276</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>326629</v>
+        <v>326270</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>340083</v>
+        <v>340231</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.966130603523863</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9440283774533645</v>
+        <v>0.9429893920870314</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9829120576999465</v>
+        <v>0.9833395633355401</v>
       </c>
     </row>
     <row r="19">
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1869,19 +1869,19 @@
         <v>6754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3231</v>
+        <v>2927</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14286</v>
+        <v>14012</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009978784360956793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00477325294181689</v>
+        <v>0.004324428018741523</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02110702204958015</v>
+        <v>0.02070177640294852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1890,19 +1890,19 @@
         <v>7592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3080</v>
+        <v>3193</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14753</v>
+        <v>15509</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006438067599248701</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002611313066946573</v>
+        <v>0.002707344425303069</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01250986159808919</v>
+        <v>0.01315133483053286</v>
       </c>
     </row>
     <row r="21">
@@ -1919,19 +1919,19 @@
         <v>7104</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3434</v>
+        <v>3522</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14158</v>
+        <v>13962</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01413746032838101</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006833941962540962</v>
+        <v>0.007009777575920179</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02817784699401839</v>
+        <v>0.02778783391648132</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -1940,19 +1940,19 @@
         <v>17685</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10088</v>
+        <v>10270</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29615</v>
+        <v>28165</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02612809468588525</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01490424926158812</v>
+        <v>0.01517378369552474</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04375470705003394</v>
+        <v>0.04161230595283975</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -1961,19 +1961,19 @@
         <v>24788</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15986</v>
+        <v>17047</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37366</v>
+        <v>37699</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02101926295469611</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01355523492261325</v>
+        <v>0.01445468806707761</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0316843184493257</v>
+        <v>0.03196710226323406</v>
       </c>
     </row>
     <row r="22">
@@ -1990,19 +1990,19 @@
         <v>494524</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>486818</v>
+        <v>487510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>498298</v>
+        <v>498172</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9841939605174496</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.968857422983237</v>
+        <v>0.9702340947614309</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9917041118893986</v>
+        <v>0.9914534745546774</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>639</v>
@@ -2011,19 +2011,19 @@
         <v>652403</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>639844</v>
+        <v>639905</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>661048</v>
+        <v>661311</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9638931209531579</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9453375123919308</v>
+        <v>0.9454281418610584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9766658637456032</v>
+        <v>0.9770531233842533</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1153</v>
@@ -2032,19 +2032,19 @@
         <v>1146927</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1134464</v>
+        <v>1133097</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1157096</v>
+        <v>1156210</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9725426694460552</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9619744879196822</v>
+        <v>0.9608153686882935</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9811649434734441</v>
+        <v>0.9804137395142198</v>
       </c>
     </row>
     <row r="23">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8471</v>
+        <v>6449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01523049134908442</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06070591178703362</v>
+        <v>0.04621556507026429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2397,19 +2397,19 @@
         <v>3138</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8331</v>
+        <v>8423</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01881640204574907</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006082224961182285</v>
+        <v>0.006042325577890674</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04995231410378179</v>
+        <v>0.05049972269662086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2418,19 +2418,19 @@
         <v>5264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2036</v>
+        <v>2053</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10611</v>
+        <v>11636</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01718287668247699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006646253063929001</v>
+        <v>0.006702132127876517</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03463839878959514</v>
+        <v>0.03798455598750235</v>
       </c>
     </row>
     <row r="5">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6576</v>
+        <v>5317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007813991809329063</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04712608259070822</v>
+        <v>0.03809992109272719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -2468,19 +2468,19 @@
         <v>4412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10181</v>
+        <v>11033</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02645160785078915</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006777564268443042</v>
+        <v>0.006745951927781249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06104384119691594</v>
+        <v>0.06615078399119266</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -2489,19 +2489,19 @@
         <v>5502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12141</v>
+        <v>12101</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01796143029478661</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.006942353525503821</v>
+        <v>0.006925964612050959</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03963413219992224</v>
+        <v>0.03950370709793115</v>
       </c>
     </row>
     <row r="6">
@@ -2518,19 +2518,19 @@
         <v>136331</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129027</v>
+        <v>130945</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138502</v>
+        <v>138562</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9769555168415865</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9246159389476294</v>
+        <v>0.9383578409645964</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.992511763442309</v>
+        <v>0.9929400040525692</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>150</v>
@@ -2539,19 +2539,19 @@
         <v>159237</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151959</v>
+        <v>152561</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>163555</v>
+        <v>163564</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9547319901034618</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9110960019748048</v>
+        <v>0.9147073570041697</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9806191383679479</v>
+        <v>0.9806769152763875</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>276</v>
@@ -2560,19 +2560,19 @@
         <v>295568</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>287032</v>
+        <v>286839</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>300959</v>
+        <v>301002</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9648556930227364</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9369908914726279</v>
+        <v>0.9363596187398727</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9824543508129658</v>
+        <v>0.982594053524414</v>
       </c>
     </row>
     <row r="7">
@@ -2664,19 +2664,19 @@
         <v>3028</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8102</v>
+        <v>8200</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01954885679750858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006367203132085063</v>
+        <v>0.006292047570461414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05231261269469686</v>
+        <v>0.05294268348335181</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -2685,19 +2685,19 @@
         <v>5554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2182</v>
+        <v>2160</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11210</v>
+        <v>12096</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02901407915666445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01140037344281197</v>
+        <v>0.01128168006065356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05856317837659451</v>
+        <v>0.06319051724330409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -2706,19 +2706,19 @@
         <v>8582</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4200</v>
+        <v>4111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17096</v>
+        <v>16011</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02478086050301523</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01212755368692252</v>
+        <v>0.01187129129144906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04936787507288862</v>
+        <v>0.04623444712751892</v>
       </c>
     </row>
     <row r="9">
@@ -2735,19 +2735,19 @@
         <v>5670</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2177</v>
+        <v>2185</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12617</v>
+        <v>12494</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03660745146927941</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01405493586179242</v>
+        <v>0.01410866011169302</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08146429074709821</v>
+        <v>0.08067193750603824</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -2756,19 +2756,19 @@
         <v>7676</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3210</v>
+        <v>3190</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14192</v>
+        <v>14537</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04010231818915368</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01676986620091677</v>
+        <v>0.01666637528779075</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07414124991610321</v>
+        <v>0.075944454909431</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -2777,19 +2777,19 @@
         <v>13346</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7508</v>
+        <v>7677</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22912</v>
+        <v>23088</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03853927672755731</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0216810710345844</v>
+        <v>0.02216767806589184</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06616131054963806</v>
+        <v>0.06667116743993121</v>
       </c>
     </row>
     <row r="10">
@@ -2806,19 +2806,19 @@
         <v>146181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137664</v>
+        <v>138684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150622</v>
+        <v>150798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.943843691733212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8888535410743166</v>
+        <v>0.8954391319076827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9725208484844056</v>
+        <v>0.9736554004785383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -2827,19 +2827,19 @@
         <v>178190</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170429</v>
+        <v>169366</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184730</v>
+        <v>183912</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9308836026541819</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8903406745704604</v>
+        <v>0.8847855268990644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9650532262271359</v>
+        <v>0.9607792852096471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>295</v>
@@ -2848,19 +2848,19 @@
         <v>324370</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>312709</v>
+        <v>313761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>332365</v>
+        <v>332198</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9366798627694275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9030041025077775</v>
+        <v>0.9060430095905079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9597647540275922</v>
+        <v>0.9592825433653401</v>
       </c>
     </row>
     <row r="11">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6615</v>
+        <v>6516</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01024836164566847</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06385435621358487</v>
+        <v>0.06289564171915958</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -2973,19 +2973,19 @@
         <v>5466</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1336</v>
+        <v>1227</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13443</v>
+        <v>13641</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03876232567434964</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009472625912191567</v>
+        <v>0.008703926703588653</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09532637018878085</v>
+        <v>0.09673335285955371</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -2997,16 +2997,16 @@
         <v>2159</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15979</v>
+        <v>14474</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0266863164614287</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00882497358046941</v>
+        <v>0.008827314691143293</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0653243346487597</v>
+        <v>0.05916858534134882</v>
       </c>
     </row>
     <row r="13">
@@ -3023,19 +3023,19 @@
         <v>4379</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1014</v>
+        <v>1040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12842</v>
+        <v>13404</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0422643582078989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009790937530575111</v>
+        <v>0.0100431709538194</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1239612452813386</v>
+        <v>0.1293827269938438</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3044,19 +3044,19 @@
         <v>3207</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8587</v>
+        <v>8667</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02274393522827922</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006766974573813916</v>
+        <v>0.006898216024457225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06089480887523278</v>
+        <v>0.06146270128878953</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -3065,19 +3065,19 @@
         <v>7586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3070</v>
+        <v>3214</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16306</v>
+        <v>16464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03101107085014119</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01254889844597058</v>
+        <v>0.01314063996206754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06665864159189833</v>
+        <v>0.06730389004748989</v>
       </c>
     </row>
     <row r="14">
@@ -3094,19 +3094,19 @@
         <v>98158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>89811</v>
+        <v>88999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101597</v>
+        <v>102025</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9474872801464327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8669165029143178</v>
+        <v>0.8590758646140065</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9806878226946113</v>
+        <v>0.9848142023282853</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -3115,19 +3115,19 @@
         <v>132345</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>124404</v>
+        <v>123950</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>137681</v>
+        <v>137530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9384937390973711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8821756343741314</v>
+        <v>0.878962385908675</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9763318972642145</v>
+        <v>0.9752551195333687</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>208</v>
@@ -3136,19 +3136,19 @@
         <v>230503</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>220119</v>
+        <v>220093</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>237346</v>
+        <v>237322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9423026126884301</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8998513576134363</v>
+        <v>0.8997436007476991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9702745199711313</v>
+        <v>0.9701777347016515</v>
       </c>
     </row>
     <row r="15">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4865</v>
+        <v>4934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005921504291880546</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03010426201320496</v>
+        <v>0.03052747734127359</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3261,19 +3261,19 @@
         <v>6408</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2190</v>
+        <v>2219</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12725</v>
+        <v>12752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02628978405763928</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008985087603318894</v>
+        <v>0.009102548913672879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05220420630935865</v>
+        <v>0.05231776716301083</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3282,19 +3282,19 @@
         <v>7365</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3101</v>
+        <v>3130</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14030</v>
+        <v>14472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01816919597431051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007650448563875006</v>
+        <v>0.007722555825585039</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03461149525425846</v>
+        <v>0.03570136822378708</v>
       </c>
     </row>
     <row r="17">
@@ -3311,19 +3311,19 @@
         <v>6247</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14663</v>
+        <v>14505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03865578241072871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01287713033946825</v>
+        <v>0.01282747248159182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09073068828280755</v>
+        <v>0.08974889495921357</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3332,19 +3332,19 @@
         <v>5063</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1955</v>
+        <v>1971</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10936</v>
+        <v>11005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02077137125541162</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008021005897325425</v>
+        <v>0.008085163974193836</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04486409613316087</v>
+        <v>0.04515009614666083</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3353,19 +3353,19 @@
         <v>11310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5999</v>
+        <v>5732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21056</v>
+        <v>20738</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02790167080821777</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01479955285839151</v>
+        <v>0.01414024271785003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0519424982516262</v>
+        <v>0.05115965631594963</v>
       </c>
     </row>
     <row r="18">
@@ -3382,19 +3382,19 @@
         <v>154409</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>146168</v>
+        <v>146261</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>158584</v>
+        <v>158630</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9554227132973907</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9044350327737397</v>
+        <v>0.9050076476618979</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9812570812828357</v>
+        <v>0.9815411365812162</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>220</v>
@@ -3403,19 +3403,19 @@
         <v>232279</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>224924</v>
+        <v>224600</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>237674</v>
+        <v>238394</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9529388446869491</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9227671067894635</v>
+        <v>0.9214377049018442</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9750738716815462</v>
+        <v>0.9780276012263522</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>361</v>
@@ -3424,7 +3424,7 @@
         <v>386688</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>376899</v>
+        <v>376162</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>394156</v>
@@ -3433,10 +3433,10 @@
         <v>0.9539291332174717</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9297823018687483</v>
+        <v>0.9279640223983932</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9723523191678521</v>
+        <v>0.9723539185898636</v>
       </c>
     </row>
     <row r="19">
@@ -3528,19 +3528,19 @@
         <v>7172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14087</v>
+        <v>14414</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01281504064538234</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00553405944379542</v>
+        <v>0.005505689737754913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02517123669495992</v>
+        <v>0.02575518389268858</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>18</v>
@@ -3549,19 +3549,19 @@
         <v>20567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12892</v>
+        <v>12966</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32022</v>
+        <v>31211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02768133064459723</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01735217571572035</v>
+        <v>0.0174518218939808</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04310022993242763</v>
+        <v>0.04200853710322498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -3570,19 +3570,19 @@
         <v>27738</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18062</v>
+        <v>18216</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39580</v>
+        <v>41375</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02129437408746014</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01386594973487958</v>
+        <v>0.01398417608526227</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03038499261959339</v>
+        <v>0.03176311076225444</v>
       </c>
     </row>
     <row r="21">
@@ -3599,19 +3599,19 @@
         <v>17386</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10371</v>
+        <v>9767</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28041</v>
+        <v>28986</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03106641649654497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01853122504779899</v>
+        <v>0.0174532372469339</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05010485224868552</v>
+        <v>0.05179428548364484</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -3620,19 +3620,19 @@
         <v>20358</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11824</v>
+        <v>12742</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31061</v>
+        <v>30823</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0274013219958925</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01591463312849963</v>
+        <v>0.01715062463590068</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04180651543370076</v>
+        <v>0.04148604405380475</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>33</v>
@@ -3641,19 +3641,19 @@
         <v>37744</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>26854</v>
+        <v>26480</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>53117</v>
+        <v>52133</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02897594480728025</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02061515842160028</v>
+        <v>0.02032860320750209</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04077742210594641</v>
+        <v>0.04002166320179351</v>
       </c>
     </row>
     <row r="22">
@@ -3670,19 +3670,19 @@
         <v>535079</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>523336</v>
+        <v>522665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>543292</v>
+        <v>543920</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9561185428580727</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9351353915628097</v>
+        <v>0.9339358007288864</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9707936743555293</v>
+        <v>0.9719148797590047</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>657</v>
@@ -3691,19 +3691,19 @@
         <v>702050</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>686814</v>
+        <v>689004</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>714016</v>
+        <v>714049</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9449173473595103</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9244103935014045</v>
+        <v>0.9273576313906898</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.961023554742283</v>
+        <v>0.9610673766822816</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1140</v>
@@ -3712,19 +3712,19 @@
         <v>1237129</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1217782</v>
+        <v>1219230</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1252429</v>
+        <v>1252825</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9497296811052596</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9348771994925408</v>
+        <v>0.9359884993412694</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9614752360246779</v>
+        <v>0.9617789309357729</v>
       </c>
     </row>
     <row r="23">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6274</v>
+        <v>6351</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01348592284991283</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04588612051245299</v>
+        <v>0.04644914297019079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7002</v>
+        <v>8022</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01337902851653804</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04038200827526919</v>
+        <v>0.04626516822341219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4098,19 +4098,19 @@
         <v>4164</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10408</v>
+        <v>10127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01342615821118616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003644262008921793</v>
+        <v>0.00363968680011256</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0335592445884068</v>
+        <v>0.03265510711680453</v>
       </c>
     </row>
     <row r="5">
@@ -4127,19 +4127,19 @@
         <v>4181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1587</v>
+        <v>1599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9148</v>
+        <v>9091</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03058049250012348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01160657959252706</v>
+        <v>0.01169574334007035</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06690589697780565</v>
+        <v>0.06648789645767797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4148,19 +4148,19 @@
         <v>4339</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10250</v>
+        <v>10361</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02502228027761044</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006895749541261141</v>
+        <v>0.006853679846605715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05911564575170549</v>
+        <v>0.05975355634280236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -4169,19 +4169,19 @@
         <v>8520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4082</v>
+        <v>3771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14715</v>
+        <v>15053</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0274728951658482</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01316275955382592</v>
+        <v>0.01215945093106634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04744911150056429</v>
+        <v>0.04853859546878656</v>
       </c>
     </row>
     <row r="6">
@@ -4198,19 +4198,19 @@
         <v>130709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125596</v>
+        <v>124696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134187</v>
+        <v>134156</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9559335846499637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9185390403544466</v>
+        <v>0.911958114124423</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9813756025090475</v>
+        <v>0.981147688127839</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -4219,19 +4219,19 @@
         <v>166733</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>160390</v>
+        <v>159861</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171035</v>
+        <v>171050</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9615986912058515</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9250172617703779</v>
+        <v>0.92196707375141</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9864140346083489</v>
+        <v>0.9864998925647086</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>292</v>
@@ -4240,19 +4240,19 @@
         <v>297441</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>289648</v>
+        <v>288962</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>303160</v>
+        <v>303282</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9591009466229656</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9339723641318083</v>
+        <v>0.9317587394409119</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9775408095302168</v>
+        <v>0.9779356231303211</v>
       </c>
     </row>
     <row r="7">
@@ -4344,19 +4344,19 @@
         <v>3624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9007</v>
+        <v>8786</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02196949347894004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005661835529902324</v>
+        <v>0.005609311096436236</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05460781531397531</v>
+        <v>0.05326606253730928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11227</v>
+        <v>11259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01492100671304906</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0512254639781338</v>
+        <v>0.05137183724085806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4386,19 +4386,19 @@
         <v>6894</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2677</v>
+        <v>2652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15855</v>
+        <v>14325</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01794774775177758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006969942869179902</v>
+        <v>0.006904281669522179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04127662659070845</v>
+        <v>0.03729516042473208</v>
       </c>
     </row>
     <row r="9">
@@ -4415,19 +4415,19 @@
         <v>2488</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>135</v>
+        <v>818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6729</v>
+        <v>6963</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01508356739939206</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0008164563819821127</v>
+        <v>0.004956849438953119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04079542963694322</v>
+        <v>0.04221283967428269</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7665</v>
+        <v>8235</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01074248645186364</v>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03497364647353909</v>
+        <v>0.03757524973248279</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -4457,19 +4457,19 @@
         <v>4842</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1650</v>
+        <v>1694</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10638</v>
+        <v>12014</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01260662102325996</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004294793707401915</v>
+        <v>0.004410721748290198</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02769516828151207</v>
+        <v>0.03127914098414919</v>
       </c>
     </row>
     <row r="10">
@@ -4486,19 +4486,19 @@
         <v>158829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152715</v>
+        <v>152697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162218</v>
+        <v>162324</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.962946939121668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9258778021334626</v>
+        <v>0.9257671853333275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9834882664272966</v>
+        <v>0.9841347605710754</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -4507,19 +4507,19 @@
         <v>213539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204992</v>
+        <v>205220</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>217207</v>
+        <v>217156</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9743365068350873</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9353406409168714</v>
+        <v>0.9363821229185868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.99107581529985</v>
+        <v>0.9908417238546238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>346</v>
@@ -4528,19 +4528,19 @@
         <v>372368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>363046</v>
+        <v>363564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>377788</v>
+        <v>377895</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9694456312249624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9451768406420068</v>
+        <v>0.9465249645895041</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.983556141381582</v>
+        <v>0.9838358231577681</v>
       </c>
     </row>
     <row r="11">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8109</v>
+        <v>9211</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01836035630061222</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05686538305447871</v>
+        <v>0.06459759021472095</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9883</v>
+        <v>9185</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0101622590966245</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03836258031557758</v>
+        <v>0.03565345969272276</v>
       </c>
     </row>
     <row r="13">
@@ -4695,19 +4695,19 @@
         <v>3512</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8209</v>
+        <v>8638</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03053338193508131</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007319859098942651</v>
+        <v>0.007665313583926462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07135677367107704</v>
+        <v>0.07509207705115352</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8362</v>
+        <v>9602</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01618959160923621</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05864443928273798</v>
+        <v>0.06733889305375754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4737,19 +4737,19 @@
         <v>5821</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2424</v>
+        <v>2245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12349</v>
+        <v>11792</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02259424876509847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009409167251363834</v>
+        <v>0.008715652474150784</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04793359627786912</v>
+        <v>0.04577016906928356</v>
       </c>
     </row>
     <row r="14">
@@ -4766,19 +4766,19 @@
         <v>111523</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106826</v>
+        <v>106397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114193</v>
+        <v>114153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9694666180649187</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9286432263289229</v>
+        <v>0.9249079229488465</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9926801409010574</v>
+        <v>0.9923346864160737</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -4787,19 +4787,19 @@
         <v>137669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130090</v>
+        <v>130452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>141292</v>
+        <v>141302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9654500520901516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9122972038551922</v>
+        <v>0.9148382195755964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9908524523770585</v>
+        <v>0.9909276676450312</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>224</v>
@@ -4808,19 +4808,19 @@
         <v>249192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>240748</v>
+        <v>240491</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>253659</v>
+        <v>253586</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.967243492138277</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9344686570425822</v>
+        <v>0.9334696860138044</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9845842448166653</v>
+        <v>0.9842973850743901</v>
       </c>
     </row>
     <row r="15">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8908</v>
+        <v>6331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005079819195252043</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03669334472228693</v>
+        <v>0.02607794247258185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6199</v>
+        <v>6828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002954686433107249</v>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01485094313939351</v>
+        <v>0.01635908581586599</v>
       </c>
     </row>
     <row r="17">
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7896</v>
+        <v>7505</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01155905777470617</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04522009566712146</v>
+        <v>0.04297929078146042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -4996,19 +4996,19 @@
         <v>5108</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1313</v>
+        <v>1383</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12099</v>
+        <v>12328</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0210375492297436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005409567971908781</v>
+        <v>0.005695892702768986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04983333895417733</v>
+        <v>0.05078012795619689</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -5017,19 +5017,19 @@
         <v>7126</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2595</v>
+        <v>2551</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15776</v>
+        <v>14240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01707224023889671</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00621785871153838</v>
+        <v>0.00611114500781251</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03779701914183177</v>
+        <v>0.03411624283246126</v>
       </c>
     </row>
     <row r="18">
@@ -5046,7 +5046,7 @@
         <v>172600</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166722</v>
+        <v>167113</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>174618</v>
@@ -5055,7 +5055,7 @@
         <v>0.9884409422252938</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9547799043328785</v>
+        <v>0.9570207092185397</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -5067,19 +5067,19 @@
         <v>236440</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>228755</v>
+        <v>229013</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>240304</v>
+        <v>240253</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9738826315750043</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9422265796965635</v>
+        <v>0.9432913176252044</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9897966990882913</v>
+        <v>0.9895890285607118</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>381</v>
@@ -5088,19 +5088,19 @@
         <v>409041</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>400167</v>
+        <v>401330</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>413729</v>
+        <v>413960</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.979973073327996</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9587135861779341</v>
+        <v>0.9614997333055535</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9912059732232537</v>
+        <v>0.9917593059502484</v>
       </c>
     </row>
     <row r="19">
@@ -5192,19 +5192,19 @@
         <v>5468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2518</v>
+        <v>2641</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11695</v>
+        <v>11829</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009246389023633096</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004258976510613297</v>
+        <v>0.00446570114790034</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01977822276548868</v>
+        <v>0.02000448643722856</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -5213,19 +5213,19 @@
         <v>9441</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3749</v>
+        <v>3776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18311</v>
+        <v>18522</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01213646295226256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004819405425333517</v>
+        <v>0.004853905778830279</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02353749331326708</v>
+        <v>0.02380964118619344</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -5234,19 +5234,19 @@
         <v>14909</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7712</v>
+        <v>7612</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25522</v>
+        <v>23890</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01088835603204506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005632408052102133</v>
+        <v>0.005559268966360116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01863919728599998</v>
+        <v>0.01744761449055322</v>
       </c>
     </row>
     <row r="21">
@@ -5263,19 +5263,19 @@
         <v>12200</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6636</v>
+        <v>6886</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20006</v>
+        <v>19213</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02063172477147526</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01122216033787344</v>
+        <v>0.01164454292966053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03383208634079743</v>
+        <v>0.03249158621987115</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -5284,19 +5284,19 @@
         <v>14109</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7568</v>
+        <v>7316</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23176</v>
+        <v>22778</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01813667334404181</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.00972896518560739</v>
+        <v>0.009404185247393547</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0297918206498631</v>
+        <v>0.02927964159583281</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -5305,19 +5305,19 @@
         <v>26309</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16989</v>
+        <v>17046</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37350</v>
+        <v>38147</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01921418590246796</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01240743075940439</v>
+        <v>0.01244934228057986</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02727736918134331</v>
+        <v>0.02785945985364659</v>
       </c>
     </row>
     <row r="22">
@@ -5334,19 +5334,19 @@
         <v>573660</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>564810</v>
+        <v>563887</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>580403</v>
+        <v>580085</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9701218862048916</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9551557465414221</v>
+        <v>0.9535949488093393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9815248110086831</v>
+        <v>0.9809875254299332</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>636</v>
@@ -5355,19 +5355,19 @@
         <v>754381</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>742882</v>
+        <v>741490</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>764127</v>
+        <v>763083</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9697268637036957</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9549452713131208</v>
+        <v>0.9531563918275667</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9822550729501399</v>
+        <v>0.9809137304077346</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1243</v>
@@ -5376,19 +5376,19 @@
         <v>1328041</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1314535</v>
+        <v>1314356</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1339881</v>
+        <v>1340697</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.969897458065487</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.960033762157668</v>
+        <v>0.9599028173424158</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9785447480927153</v>
+        <v>0.9791403682158067</v>
       </c>
     </row>
     <row r="23">
@@ -5720,19 +5720,19 @@
         <v>1108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3177</v>
+        <v>3079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006782031341806013</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00204260896998149</v>
+        <v>0.002067581469693573</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01945169956837089</v>
+        <v>0.0188553726908494</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -5741,19 +5741,19 @@
         <v>1619</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3831</v>
+        <v>3708</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008502603784158911</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002109532927142003</v>
+        <v>0.0020516724625575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02011854631416589</v>
+        <v>0.01947113604461002</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -5762,19 +5762,19 @@
         <v>2727</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1115</v>
+        <v>1153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5178</v>
+        <v>5350</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007708251453094454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003151570324242067</v>
+        <v>0.003260475236038179</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0146377086764955</v>
+        <v>0.01512316950176493</v>
       </c>
     </row>
     <row r="5">
@@ -5791,19 +5791,19 @@
         <v>1996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4908</v>
+        <v>4601</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01222010013933699</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003026816391312692</v>
+        <v>0.003034013729742861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03005148648856887</v>
+        <v>0.02816979390136585</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -5812,19 +5812,19 @@
         <v>7880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4642</v>
+        <v>4707</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12211</v>
+        <v>13372</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04138102983085513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02437437904836615</v>
+        <v>0.02472032084846683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06412459743998045</v>
+        <v>0.07022330724350731</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -5833,19 +5833,19 @@
         <v>9876</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6323</v>
+        <v>6313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15146</v>
+        <v>15044</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02791803815072156</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01787413333672664</v>
+        <v>0.01784752680102611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04281555913590014</v>
+        <v>0.04252851149390293</v>
       </c>
     </row>
     <row r="6">
@@ -5862,19 +5862,19 @@
         <v>160211</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>157294</v>
+        <v>157475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>162164</v>
+        <v>161994</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.980997868518857</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9631409991701436</v>
+        <v>0.9642444622356885</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9929572815455843</v>
+        <v>0.9919175207960856</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>424</v>
@@ -5883,19 +5883,19 @@
         <v>180927</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>176163</v>
+        <v>175348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>184513</v>
+        <v>184273</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.950116366384986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.925098374084929</v>
+        <v>0.9208177962677796</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9689500440408986</v>
+        <v>0.9676907931154741</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>670</v>
@@ -5904,19 +5904,19 @@
         <v>341138</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>335580</v>
+        <v>335396</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>345331</v>
+        <v>345079</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9643737103961839</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9486631620771451</v>
+        <v>0.9481414805224241</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9762286514675921</v>
+        <v>0.9755172915002474</v>
       </c>
     </row>
     <row r="7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3423</v>
+        <v>3834</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006095134461844299</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01921073064732566</v>
+        <v>0.02151633424463742</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -6029,19 +6029,19 @@
         <v>4135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1806</v>
+        <v>1832</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8387</v>
+        <v>7853</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01708420038901557</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007459980753696505</v>
+        <v>0.007571057543141599</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03465279620548001</v>
+        <v>0.03244597213232229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -6050,19 +6050,19 @@
         <v>5221</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2587</v>
+        <v>2513</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9470</v>
+        <v>9277</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01242430019107634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006156351671108165</v>
+        <v>0.005979513591186742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02253488356128174</v>
+        <v>0.02207625380946125</v>
       </c>
     </row>
     <row r="9">
@@ -6079,19 +6079,19 @@
         <v>3262</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1211</v>
+        <v>1221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7485</v>
+        <v>7303</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01830620194853051</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006793667331390313</v>
+        <v>0.006852244714605885</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04200404389763691</v>
+        <v>0.04097843198095269</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -6100,19 +6100,19 @@
         <v>9914</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6155</v>
+        <v>5958</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15605</v>
+        <v>14869</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04095812206665372</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02542838001810427</v>
+        <v>0.0246168335026947</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06447350925587665</v>
+        <v>0.06143227268948077</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -6121,19 +6121,19 @@
         <v>13176</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8471</v>
+        <v>8904</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19709</v>
+        <v>19502</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03135260256738928</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02015758286119898</v>
+        <v>0.02118718751543022</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04689788932577762</v>
+        <v>0.04640700075605924</v>
       </c>
     </row>
     <row r="10">
@@ -6150,19 +6150,19 @@
         <v>173856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169254</v>
+        <v>169661</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176254</v>
+        <v>176219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9755986635896252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9497791420618396</v>
+        <v>0.9520595306240434</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9890567850322597</v>
+        <v>0.9888637104573827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>422</v>
@@ -6171,19 +6171,19 @@
         <v>227991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>221989</v>
+        <v>221671</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>232577</v>
+        <v>232517</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9419576775443307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9171578257015678</v>
+        <v>0.9158449437507464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9609037419606694</v>
+        <v>0.9606570486847358</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>669</v>
@@ -6192,19 +6192,19 @@
         <v>401846</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>394815</v>
+        <v>395344</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>407564</v>
+        <v>407082</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9562230972415342</v>
+        <v>0.9562230972415344</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9394922722364043</v>
+        <v>0.9407503123822004</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9698288326850762</v>
+        <v>0.9686833236454426</v>
       </c>
     </row>
     <row r="11">
@@ -6312,16 +6312,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6777</v>
+        <v>7082</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01052062041798996</v>
+        <v>0.01052062041798997</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03874316180761164</v>
+        <v>0.0404900243314134</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7540</v>
+        <v>7605</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005498018595625268</v>
@@ -6342,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0225273641402299</v>
+        <v>0.02272257944807997</v>
       </c>
     </row>
     <row r="13">
@@ -6359,19 +6359,19 @@
         <v>4165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1431</v>
+        <v>1400</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9326</v>
+        <v>8869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02606423447546605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008955220487225532</v>
+        <v>0.008759077581689057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05836738221903543</v>
+        <v>0.05550759588832159</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -6380,19 +6380,19 @@
         <v>7033</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3782</v>
+        <v>3793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12189</v>
+        <v>12294</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04020750661715223</v>
+        <v>0.04020750661715224</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02162230686098847</v>
+        <v>0.02168400345329316</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06968566854192608</v>
+        <v>0.07028837468299391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -6401,19 +6401,19 @@
         <v>11197</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6627</v>
+        <v>6407</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17755</v>
+        <v>17939</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03345543101602483</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01980091343293635</v>
+        <v>0.01914139674205962</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05304740280695838</v>
+        <v>0.05359921355955637</v>
       </c>
     </row>
     <row r="14">
@@ -6430,19 +6430,19 @@
         <v>155620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150459</v>
+        <v>150916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158354</v>
+        <v>158385</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.973935765524534</v>
+        <v>0.9739357655245339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9416326177809646</v>
+        <v>0.944492404111678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9910447795127745</v>
+        <v>0.991240922418311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -6451,19 +6451,19 @@
         <v>166036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159717</v>
+        <v>160040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>169883</v>
+        <v>169849</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9492718729648579</v>
+        <v>0.9492718729648578</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9131417747345209</v>
+        <v>0.9149893451345682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.971265541907438</v>
+        <v>0.9710706244526576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>463</v>
@@ -6472,19 +6472,19 @@
         <v>321657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>313827</v>
+        <v>314375</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>326761</v>
+        <v>327020</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9610465503883499</v>
+        <v>0.9610465503883501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.937654897161288</v>
+        <v>0.9392896592125669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9762984255324032</v>
+        <v>0.9770722487601173</v>
       </c>
     </row>
     <row r="15">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3408</v>
+        <v>2973</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002321564051680544</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01589466237297118</v>
+        <v>0.01386226497791636</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6597,19 +6597,19 @@
         <v>5503</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2368</v>
+        <v>2293</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12331</v>
+        <v>14534</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01863075594282827</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008018595035087348</v>
+        <v>0.007763564931483702</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04174962272694224</v>
+        <v>0.04920577212540154</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -6618,19 +6618,19 @@
         <v>6001</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2387</v>
+        <v>2708</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12862</v>
+        <v>14920</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01177068169075162</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004682198917327132</v>
+        <v>0.005311530201438567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02523022339945699</v>
+        <v>0.02926579327064788</v>
       </c>
     </row>
     <row r="17">
@@ -6647,19 +6647,19 @@
         <v>3263</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7541</v>
+        <v>7180</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01521582498323019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006002069100117427</v>
+        <v>0.005940614688094879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03516482803553807</v>
+        <v>0.03348262423936432</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -6668,19 +6668,19 @@
         <v>9973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5752</v>
+        <v>5798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16184</v>
+        <v>15723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.033765634323888</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01947355387967871</v>
+        <v>0.01962863009120183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05479171113370356</v>
+        <v>0.05323059664842208</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -6689,19 +6689,19 @@
         <v>13236</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8759</v>
+        <v>8354</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20149</v>
+        <v>20192</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02596309755271617</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01718173611810725</v>
+        <v>0.0163866721466106</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03952260772744562</v>
+        <v>0.03960782773470692</v>
       </c>
     </row>
     <row r="18">
@@ -6718,19 +6718,19 @@
         <v>210675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>206425</v>
+        <v>206931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212836</v>
+        <v>213131</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9824626109650891</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9626394556280495</v>
+        <v>0.9650029254952892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9925395482058397</v>
+        <v>0.9939120411915716</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>501</v>
@@ -6739,19 +6739,19 @@
         <v>279890</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>271411</v>
+        <v>271019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>285359</v>
+        <v>285299</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.9476036097332837</v>
+        <v>0.9476036097332835</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.918897467016744</v>
+        <v>0.9175701715237142</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9661196274208667</v>
+        <v>0.9659156001385767</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>821</v>
@@ -6760,19 +6760,19 @@
         <v>490564</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>482410</v>
+        <v>481740</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>496703</v>
+        <v>496677</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9622662207565322</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9462719581252156</v>
+        <v>0.9449564793775879</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9743067017216924</v>
+        <v>0.9742574512749914</v>
       </c>
     </row>
     <row r="19">
@@ -6864,19 +6864,19 @@
         <v>2692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1111</v>
+        <v>1181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5476</v>
+        <v>6130</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.003760598105823205</v>
+        <v>0.003760598105823204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001552647488826855</v>
+        <v>0.001650695147435617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007650918328751711</v>
+        <v>0.008564867318825315</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -6885,19 +6885,19 @@
         <v>13097</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8332</v>
+        <v>7631</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20942</v>
+        <v>21049</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01450828022849856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009229740932860742</v>
+        <v>0.008453623169481691</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02319818670498809</v>
+        <v>0.02331728803175934</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -6906,19 +6906,19 @@
         <v>15789</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10310</v>
+        <v>10236</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24054</v>
+        <v>24425</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00975534086042785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006370102008576564</v>
+        <v>0.006324649597054075</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01486210034258747</v>
+        <v>0.01509153305455877</v>
       </c>
     </row>
     <row r="21">
@@ -6935,19 +6935,19 @@
         <v>12685</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7946</v>
+        <v>7957</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19784</v>
+        <v>19289</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01772355788301084</v>
+        <v>0.01772355788301083</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01110176386107071</v>
+        <v>0.01111703548027171</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02764191807503546</v>
+        <v>0.02695009142508027</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>63</v>
@@ -6956,19 +6956,19 @@
         <v>34799</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>27821</v>
+        <v>26792</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44291</v>
+        <v>44040</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03854860165117262</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03081797334035595</v>
+        <v>0.02967890769982581</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04906264907619068</v>
+        <v>0.04878511950507799</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>82</v>
@@ -6977,19 +6977,19 @@
         <v>47485</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37700</v>
+        <v>38620</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58982</v>
+        <v>58806</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02933915823465546</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02329344831372117</v>
+        <v>0.02386197835087667</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03644295239206292</v>
+        <v>0.03633413672114417</v>
       </c>
     </row>
     <row r="22">
@@ -7006,19 +7006,19 @@
         <v>700361</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>692484</v>
+        <v>693234</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>705550</v>
+        <v>705542</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9785158440111658</v>
+        <v>0.978515844011166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9675098066976011</v>
+        <v>0.9685585027302359</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.985766275245484</v>
+        <v>0.9857550748115745</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1622</v>
@@ -7027,19 +7027,19 @@
         <v>854843</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>843305</v>
+        <v>842228</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>863834</v>
+        <v>863612</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9469431181203287</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9341612838361965</v>
+        <v>0.9329682044248883</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9569020394522617</v>
+        <v>0.9566560248446028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2623</v>
@@ -7048,19 +7048,19 @@
         <v>1555204</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1541880</v>
+        <v>1541293</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1565937</v>
+        <v>1567059</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9609055009049168</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9526729554412702</v>
+        <v>0.9523102853717936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9675369250683695</v>
+        <v>0.9682297359156516</v>
       </c>
     </row>
     <row r="23">
